--- a/Appendix/Appendix L.xlsx
+++ b/Appendix/Appendix L.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\johng\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\johng\Documents\FPL-Assistant\Appendix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F05C6331-C97B-498E-A5F5-8B6FD6D16CF4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F10ED4DB-DBC2-4583-AB6F-11FE0D1C56DD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12990" yWindow="3765" windowWidth="7500" windowHeight="6000" xr2:uid="{F4613A54-1E7E-4AB7-A431-3646C98D1E08}"/>
+    <workbookView xWindow="18885" yWindow="4185" windowWidth="2400" windowHeight="585" xr2:uid="{F4613A54-1E7E-4AB7-A431-3646C98D1E08}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,9 +39,6 @@
     <t>My prediction</t>
   </si>
   <si>
-    <t>Arsenal</t>
-  </si>
-  <si>
     <t>Aston Villa</t>
   </si>
   <si>
@@ -99,9 +96,6 @@
     <t>Leeds</t>
   </si>
   <si>
-    <t>Total</t>
-  </si>
-  <si>
     <t>Percentage</t>
   </si>
   <si>
@@ -220,6 +214,12 @@
   </si>
   <si>
     <t>my score</t>
+  </si>
+  <si>
+    <t>Total (/220)</t>
+  </si>
+  <si>
+    <t>Arsenal (/11)</t>
   </si>
 </sst>
 </file>
@@ -626,8 +626,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF42756F-EE0F-47D1-A83D-FAFA646BDE40}">
   <dimension ref="A1:L39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J41" sqref="J41"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -645,13 +645,13 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B1" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -659,39 +659,42 @@
         <v>0</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F2" s="7" t="s">
         <v>0</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J2" s="7" t="s">
         <v>0</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="L2" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="B3">
         <v>10</v>
       </c>
       <c r="C3">
         <v>9</v>
+      </c>
+      <c r="D3">
+        <v>8</v>
       </c>
       <c r="F3">
         <v>6</v>
@@ -699,16 +702,22 @@
       <c r="G3">
         <v>8</v>
       </c>
+      <c r="H3">
+        <v>8</v>
+      </c>
       <c r="J3">
         <v>7</v>
       </c>
       <c r="K3">
         <v>9</v>
       </c>
+      <c r="L3">
+        <v>6</v>
+      </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4">
         <v>8</v>
@@ -716,22 +725,31 @@
       <c r="C4">
         <v>7</v>
       </c>
+      <c r="D4">
+        <v>8</v>
+      </c>
       <c r="F4">
         <v>10</v>
       </c>
       <c r="G4">
         <v>9</v>
       </c>
+      <c r="H4">
+        <v>9</v>
+      </c>
       <c r="J4">
         <v>9</v>
       </c>
       <c r="K4">
+        <v>10</v>
+      </c>
+      <c r="L4">
         <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5">
         <v>10</v>
@@ -739,22 +757,31 @@
       <c r="C5">
         <v>8</v>
       </c>
+      <c r="D5">
+        <v>9</v>
+      </c>
       <c r="F5">
         <v>11</v>
       </c>
       <c r="G5">
         <v>11</v>
       </c>
+      <c r="H5">
+        <v>10</v>
+      </c>
       <c r="J5">
         <v>10</v>
       </c>
       <c r="K5">
+        <v>10</v>
+      </c>
+      <c r="L5">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6">
         <v>11</v>
@@ -762,22 +789,31 @@
       <c r="C6">
         <v>10</v>
       </c>
+      <c r="D6">
+        <v>10</v>
+      </c>
       <c r="F6">
         <v>11</v>
       </c>
       <c r="G6">
         <v>11</v>
       </c>
+      <c r="H6">
+        <v>11</v>
+      </c>
       <c r="J6">
         <v>10</v>
       </c>
       <c r="K6">
+        <v>9</v>
+      </c>
+      <c r="L6">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7">
         <v>8</v>
@@ -785,11 +821,17 @@
       <c r="C7">
         <v>9</v>
       </c>
+      <c r="D7">
+        <v>7</v>
+      </c>
       <c r="F7">
         <v>10</v>
       </c>
       <c r="G7">
         <v>8</v>
+      </c>
+      <c r="H7">
+        <v>7</v>
       </c>
       <c r="J7">
         <v>7</v>
@@ -797,10 +839,13 @@
       <c r="K7">
         <v>6</v>
       </c>
+      <c r="L7">
+        <v>6</v>
+      </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8">
         <v>11</v>
@@ -808,22 +853,31 @@
       <c r="C8">
         <v>10</v>
       </c>
+      <c r="D8">
+        <v>9</v>
+      </c>
       <c r="F8">
         <v>11</v>
       </c>
       <c r="G8">
         <v>11</v>
       </c>
+      <c r="H8">
+        <v>11</v>
+      </c>
       <c r="J8">
         <v>11</v>
       </c>
       <c r="K8">
+        <v>11</v>
+      </c>
+      <c r="L8">
         <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -831,22 +885,31 @@
       <c r="C9">
         <v>9</v>
       </c>
+      <c r="D9">
+        <v>8</v>
+      </c>
       <c r="F9">
         <v>9</v>
       </c>
       <c r="G9">
         <v>8</v>
       </c>
+      <c r="H9">
+        <v>9</v>
+      </c>
       <c r="J9">
         <v>9</v>
       </c>
       <c r="K9">
         <v>10</v>
+      </c>
+      <c r="L9">
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -854,22 +917,31 @@
       <c r="C10">
         <v>8</v>
       </c>
+      <c r="D10">
+        <v>9</v>
+      </c>
       <c r="F10">
         <v>10</v>
       </c>
       <c r="G10">
         <v>9</v>
       </c>
+      <c r="H10">
+        <v>7</v>
+      </c>
       <c r="J10">
         <v>9</v>
       </c>
       <c r="K10">
         <v>8</v>
+      </c>
+      <c r="L10">
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B11">
         <v>11</v>
@@ -877,22 +949,31 @@
       <c r="C11">
         <v>9</v>
       </c>
+      <c r="D11">
+        <v>10</v>
+      </c>
       <c r="F11">
         <v>9</v>
       </c>
       <c r="G11">
         <v>9</v>
       </c>
+      <c r="H11">
+        <v>10</v>
+      </c>
       <c r="J11">
         <v>10</v>
       </c>
       <c r="K11">
         <v>10</v>
+      </c>
+      <c r="L11">
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B12">
         <v>9</v>
@@ -900,22 +981,31 @@
       <c r="C12">
         <v>8</v>
       </c>
+      <c r="D12">
+        <v>9</v>
+      </c>
       <c r="F12">
         <v>10</v>
       </c>
       <c r="G12">
         <v>10</v>
       </c>
+      <c r="H12">
+        <v>11</v>
+      </c>
       <c r="J12">
         <v>11</v>
       </c>
       <c r="K12">
+        <v>11</v>
+      </c>
+      <c r="L12">
         <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
         <v>11</v>
@@ -923,22 +1013,31 @@
       <c r="C13">
         <v>11</v>
       </c>
+      <c r="D13">
+        <v>11</v>
+      </c>
       <c r="F13">
         <v>10</v>
       </c>
       <c r="G13">
         <v>10</v>
       </c>
+      <c r="H13">
+        <v>9</v>
+      </c>
       <c r="J13">
         <v>8</v>
       </c>
       <c r="K13">
         <v>9</v>
+      </c>
+      <c r="L13">
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B14">
         <v>10</v>
@@ -946,22 +1045,31 @@
       <c r="C14">
         <v>11</v>
       </c>
+      <c r="D14">
+        <v>10</v>
+      </c>
       <c r="F14">
         <v>8</v>
       </c>
       <c r="G14">
         <v>9</v>
       </c>
+      <c r="H14">
+        <v>8</v>
+      </c>
       <c r="J14">
         <v>9</v>
       </c>
       <c r="K14">
         <v>9</v>
+      </c>
+      <c r="L14">
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B15">
         <v>7</v>
@@ -969,27 +1077,39 @@
       <c r="C15">
         <v>5</v>
       </c>
+      <c r="D15">
+        <v>5</v>
+      </c>
       <c r="F15">
         <v>8</v>
       </c>
       <c r="G15">
         <v>6</v>
       </c>
+      <c r="H15">
+        <v>6</v>
+      </c>
       <c r="J15">
         <v>9</v>
       </c>
       <c r="K15">
         <v>8</v>
+      </c>
+      <c r="L15">
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B16">
         <v>8</v>
       </c>
       <c r="C16">
+        <v>8</v>
+      </c>
+      <c r="D16">
         <v>8</v>
       </c>
       <c r="F16">
@@ -998,68 +1118,95 @@
       <c r="G16">
         <v>6</v>
       </c>
+      <c r="H16">
+        <v>7</v>
+      </c>
       <c r="J16">
         <v>10</v>
       </c>
       <c r="K16">
         <v>8</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L16">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17">
+        <v>9</v>
+      </c>
+      <c r="C17">
+        <v>8</v>
+      </c>
+      <c r="D17">
+        <v>7</v>
+      </c>
+      <c r="F17">
+        <v>10</v>
+      </c>
+      <c r="G17">
+        <v>9</v>
+      </c>
+      <c r="H17">
+        <v>10</v>
+      </c>
+      <c r="J17">
+        <v>9</v>
+      </c>
+      <c r="K17">
+        <v>8</v>
+      </c>
+      <c r="L17">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18">
+        <v>11</v>
+      </c>
+      <c r="C18">
+        <v>10</v>
+      </c>
+      <c r="D18">
+        <v>11</v>
+      </c>
+      <c r="F18">
+        <v>10</v>
+      </c>
+      <c r="G18">
+        <v>9</v>
+      </c>
+      <c r="H18">
+        <v>9</v>
+      </c>
+      <c r="J18">
+        <v>11</v>
+      </c>
+      <c r="K18">
+        <v>11</v>
+      </c>
+      <c r="L18">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B17">
-        <v>9</v>
-      </c>
-      <c r="C17">
-        <v>8</v>
-      </c>
-      <c r="F17">
-        <v>10</v>
-      </c>
-      <c r="G17">
-        <v>9</v>
-      </c>
-      <c r="J17">
-        <v>9</v>
-      </c>
-      <c r="K17">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B18">
-        <v>11</v>
-      </c>
-      <c r="C18">
-        <v>10</v>
-      </c>
-      <c r="F18">
-        <v>10</v>
-      </c>
-      <c r="G18">
-        <v>9</v>
-      </c>
-      <c r="J18">
-        <v>11</v>
-      </c>
-      <c r="K18">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
-        <v>19</v>
-      </c>
       <c r="B19">
         <v>9</v>
       </c>
       <c r="C19">
         <v>11</v>
+      </c>
+      <c r="D19">
+        <v>10</v>
       </c>
       <c r="F19">
         <v>9</v>
@@ -1067,85 +1214,118 @@
       <c r="G19">
         <v>7</v>
       </c>
+      <c r="H19">
+        <v>8</v>
+      </c>
       <c r="J19">
         <v>9</v>
       </c>
       <c r="K19">
         <v>9</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L19">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20">
+        <v>10</v>
+      </c>
+      <c r="C20">
+        <v>9</v>
+      </c>
+      <c r="D20">
+        <v>10</v>
+      </c>
+      <c r="F20">
+        <v>9</v>
+      </c>
+      <c r="G20">
+        <v>8</v>
+      </c>
+      <c r="H20">
+        <v>9</v>
+      </c>
+      <c r="J20">
+        <v>11</v>
+      </c>
+      <c r="K20">
+        <v>11</v>
+      </c>
+      <c r="L20">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B20">
-        <v>10</v>
-      </c>
-      <c r="C20">
-        <v>9</v>
-      </c>
-      <c r="F20">
-        <v>9</v>
-      </c>
-      <c r="G20">
-        <v>8</v>
-      </c>
-      <c r="J20">
-        <v>11</v>
-      </c>
-      <c r="K20">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
+      <c r="B21">
+        <v>11</v>
+      </c>
+      <c r="C21">
+        <v>11</v>
+      </c>
+      <c r="D21">
+        <v>10</v>
+      </c>
+      <c r="F21">
+        <v>10</v>
+      </c>
+      <c r="G21">
+        <v>10</v>
+      </c>
+      <c r="H21">
+        <v>9</v>
+      </c>
+      <c r="J21">
+        <v>10</v>
+      </c>
+      <c r="K21">
+        <v>8</v>
+      </c>
+      <c r="L21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B21">
-        <v>11</v>
-      </c>
-      <c r="C21">
-        <v>11</v>
-      </c>
-      <c r="F21">
-        <v>10</v>
-      </c>
-      <c r="G21">
-        <v>10</v>
-      </c>
-      <c r="J21">
-        <v>10</v>
-      </c>
-      <c r="K21">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="B22">
         <v>10</v>
       </c>
       <c r="C22">
         <v>9</v>
       </c>
+      <c r="D22">
+        <v>10</v>
+      </c>
       <c r="F22">
         <v>9</v>
       </c>
       <c r="G22">
         <v>9</v>
       </c>
+      <c r="H22">
+        <v>8</v>
+      </c>
       <c r="J22">
         <v>10</v>
       </c>
       <c r="K22">
         <v>10</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="B23" s="1">
         <f>SUM(B3:B22)</f>
@@ -1155,6 +1335,10 @@
         <f>SUM(C3:C22)</f>
         <v>180</v>
       </c>
+      <c r="D23">
+        <f>SUM(D3:D22)</f>
+        <v>179</v>
+      </c>
       <c r="F23">
         <f>SUM(F3:F22)</f>
         <v>187</v>
@@ -1163,6 +1347,10 @@
         <f>SUM(G3:G22)</f>
         <v>177</v>
       </c>
+      <c r="H23">
+        <f>SUM(H3:H22)</f>
+        <v>176</v>
+      </c>
       <c r="J23">
         <f>SUM(J3:J22)</f>
         <v>189</v>
@@ -1171,10 +1359,14 @@
         <f>SUM(K3:K22)</f>
         <v>185</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L23">
+        <f>SUM(L3:L22)</f>
+        <v>179</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B24" s="2">
         <v>0.86799999999999999</v>
@@ -1182,160 +1374,169 @@
       <c r="C24" s="2">
         <v>0.81799999999999995</v>
       </c>
+      <c r="D24" s="2">
+        <v>0.81399999999999995</v>
+      </c>
       <c r="F24" s="3">
         <v>0.85</v>
       </c>
       <c r="G24" s="2">
         <v>0.80500000000000005</v>
       </c>
+      <c r="H24" s="3">
+        <v>0.8</v>
+      </c>
       <c r="J24" s="2">
         <v>0.85899999999999999</v>
       </c>
       <c r="K24" s="3">
         <v>0.84</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L24" s="2">
+        <v>0.81399999999999995</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B26">
         <v>8</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F26">
         <v>2</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J26">
         <v>2</v>
       </c>
       <c r="K26" s="9"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B27">
         <v>5</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F27">
         <v>0</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J27">
         <v>4</v>
       </c>
       <c r="K27" s="9"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B28">
         <v>1</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F28">
         <v>4</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J28">
         <v>8</v>
       </c>
       <c r="K28" s="9"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B29">
         <v>2</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F29">
         <v>2</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J29">
         <v>1</v>
       </c>
       <c r="K29" s="9"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B30">
         <v>8</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F30">
         <v>2</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J30">
         <v>6</v>
       </c>
       <c r="K30" s="9"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B31">
         <v>3</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F31">
         <v>10</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J31">
         <v>1</v>
       </c>
       <c r="K31" s="9"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B32">
         <v>0</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F32">
         <v>3</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J32">
         <v>3</v>
@@ -1344,19 +1545,19 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B33">
         <v>1</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F33">
         <v>7</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J33">
         <v>0</v>
@@ -1365,19 +1566,19 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B34">
         <v>3</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F34">
         <v>6</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J34">
         <v>-1</v>
@@ -1386,19 +1587,19 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B35">
         <v>3</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F35">
         <v>5</v>
       </c>
       <c r="I35" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J35">
         <v>13</v>
@@ -1407,19 +1608,19 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B36">
         <v>3</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F36">
         <v>11</v>
       </c>
       <c r="I36" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J36">
         <v>5</v>
@@ -1428,19 +1629,19 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B37">
         <v>37</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F37">
         <v>52</v>
       </c>
       <c r="I37" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J37">
         <v>39</v>
@@ -1449,40 +1650,40 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B38">
         <v>35</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F38">
         <v>46</v>
       </c>
       <c r="I38" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J38" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K38" s="9"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B39">
         <v>54</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F39">
         <v>56</v>
       </c>
       <c r="I39" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J39">
         <v>49</v>
